--- a/resources/Proffosor_FreeTime.xlsx
+++ b/resources/Proffosor_FreeTime.xlsx
@@ -1,35 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alireza/PycharmProjects/uctp/resources/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{202DAB4D-C68F-B943-98E3-6E7928F9F084}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16460" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="sa" sheetId="1" r:id="rId1"/>
-    <sheet name="qu" sheetId="2" r:id="rId2"/>
-    <sheet name="qe" sheetId="3" r:id="rId3"/>
-    <sheet name="qo" sheetId="4" r:id="rId4"/>
-    <sheet name="qt" sheetId="5" r:id="rId5"/>
-    <sheet name="no" sheetId="6" r:id="rId6"/>
-    <sheet name="mo" sheetId="7" r:id="rId7"/>
-    <sheet name="ra" sheetId="8" r:id="rId8"/>
-    <sheet name="ta" sheetId="9" r:id="rId9"/>
-    <sheet name="qy" sheetId="10" r:id="rId10"/>
-    <sheet name="al" sheetId="11" r:id="rId11"/>
-    <sheet name="qi" sheetId="12" r:id="rId12"/>
-    <sheet name="qw" sheetId="13" r:id="rId13"/>
-    <sheet name="qr" sheetId="14" r:id="rId14"/>
-    <sheet name="qa" sheetId="15" r:id="rId15"/>
-    <sheet name="ba" sheetId="16" r:id="rId16"/>
+    <sheet name="Teacher1" sheetId="1" r:id="rId1"/>
+    <sheet name="Teacher2" sheetId="2" r:id="rId2"/>
+    <sheet name="Teacher3" sheetId="3" r:id="rId3"/>
+    <sheet name="Teacher4" sheetId="4" r:id="rId4"/>
+    <sheet name="Teacher5" sheetId="5" r:id="rId5"/>
+    <sheet name="Teacher6" sheetId="6" r:id="rId6"/>
+    <sheet name="Teacher7" sheetId="7" r:id="rId7"/>
+    <sheet name="Teacher8" sheetId="8" r:id="rId8"/>
+    <sheet name="Teacher9" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="9">
   <si>
     <t>8-10</t>
   </si>
@@ -61,8 +68,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +106,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -145,12 +160,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -177,14 +192,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -211,6 +227,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -386,14 +403,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -407,7 +426,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -424,7 +443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -441,7 +460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -458,7 +477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -475,7 +494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -490,790 +509,6 @@
       </c>
       <c r="E6">
         <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1282,14 +517,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1303,7 +538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1320,7 +555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1337,7 +572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1354,7 +589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1371,7 +606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1394,14 +629,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1415,7 +650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1432,7 +667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1449,7 +684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1466,7 +701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1483,7 +718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1506,14 +741,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1527,7 +762,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1544,7 +779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1561,7 +796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1578,7 +813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1595,7 +830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1618,14 +853,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1639,7 +876,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1656,7 +893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1673,7 +910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1690,7 +927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1707,7 +944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1730,14 +967,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1751,7 +988,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1768,7 +1005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1785,7 +1022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1802,7 +1039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1819,7 +1056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1842,14 +1079,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1863,7 +1100,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1880,7 +1117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1897,7 +1134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1914,7 +1151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1931,7 +1168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1954,14 +1191,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1975,7 +1212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1992,7 +1229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2009,7 +1246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2026,7 +1263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2043,7 +1280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2066,14 +1303,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O38" sqref="O38"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2087,7 +1326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2104,7 +1343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2121,7 +1360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2138,7 +1377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2155,7 +1394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
